--- a/data/pca/factorExposure/factorExposure_2011-08-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +735,66 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.02134014185987649</v>
+        <v>0.01719734761375146</v>
       </c>
       <c r="C2">
-        <v>0.01016286460594931</v>
+        <v>-0.005840630387450997</v>
       </c>
       <c r="D2">
-        <v>0.03558638565054414</v>
+        <v>0.02694730469129954</v>
       </c>
       <c r="E2">
-        <v>-0.06329427156755613</v>
+        <v>0.03498175703696967</v>
       </c>
       <c r="F2">
-        <v>-0.007085146543625655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.01341261700953491</v>
+      </c>
+      <c r="G2">
+        <v>-0.01981904818163594</v>
+      </c>
+      <c r="H2">
+        <v>0.01628426449778868</v>
+      </c>
+      <c r="I2">
+        <v>0.01904348053962706</v>
+      </c>
+      <c r="J2">
+        <v>-0.05121124156388007</v>
+      </c>
+      <c r="K2">
+        <v>-0.06180676511651086</v>
+      </c>
+      <c r="L2">
+        <v>0.02573416991243987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +811,66 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-0.07120370197905485</v>
+        <v>0.09262190044502341</v>
       </c>
       <c r="C4">
-        <v>0.04426122038578479</v>
+        <v>-0.05643546343809817</v>
       </c>
       <c r="D4">
-        <v>0.04210005163469002</v>
+        <v>0.01165398269108754</v>
       </c>
       <c r="E4">
-        <v>-0.0208651981073033</v>
+        <v>0.04921002847835485</v>
       </c>
       <c r="F4">
-        <v>-0.04270701393162479</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.09024725306788239</v>
+      </c>
+      <c r="G4">
+        <v>-0.0397771957484446</v>
+      </c>
+      <c r="H4">
+        <v>0.0112197575106278</v>
+      </c>
+      <c r="I4">
+        <v>-0.07728664203045799</v>
+      </c>
+      <c r="J4">
+        <v>0.03539589535208764</v>
+      </c>
+      <c r="K4">
+        <v>0.02798919934485784</v>
+      </c>
+      <c r="L4">
+        <v>-0.04323058060865009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +887,446 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.1248642904168487</v>
+        <v>0.1313126474546314</v>
       </c>
       <c r="C6">
-        <v>0.01076294549735878</v>
+        <v>-0.02498950738624593</v>
       </c>
       <c r="D6">
-        <v>0.04257533267649125</v>
+        <v>0.04671825199313782</v>
       </c>
       <c r="E6">
-        <v>-0.07294143503013059</v>
+        <v>0.01944993864293739</v>
       </c>
       <c r="F6">
-        <v>-0.05455274359892654</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.07088559943359382</v>
+      </c>
+      <c r="G6">
+        <v>-0.05203959236176424</v>
+      </c>
+      <c r="H6">
+        <v>-0.161026230159107</v>
+      </c>
+      <c r="I6">
+        <v>-0.03015625398709857</v>
+      </c>
+      <c r="J6">
+        <v>0.4555693292107353</v>
+      </c>
+      <c r="K6">
+        <v>-0.06384363394323567</v>
+      </c>
+      <c r="L6">
+        <v>0.05209326135548261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.06542477759196018</v>
+        <v>0.06785864506851767</v>
       </c>
       <c r="C7">
-        <v>0.01952698207348602</v>
+        <v>-0.05333895348683881</v>
       </c>
       <c r="D7">
-        <v>0.04031996072173989</v>
+        <v>0.03467158430142289</v>
       </c>
       <c r="E7">
-        <v>-0.05570839003778111</v>
+        <v>0.03980533145700776</v>
       </c>
       <c r="F7">
-        <v>-0.0268820406844894</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.03791406251953769</v>
+      </c>
+      <c r="G7">
+        <v>0.006805758513662043</v>
+      </c>
+      <c r="H7">
+        <v>0.0008484534463011195</v>
+      </c>
+      <c r="I7">
+        <v>-0.04415481777631748</v>
+      </c>
+      <c r="J7">
+        <v>-0.05128198041228187</v>
+      </c>
+      <c r="K7">
+        <v>0.03579117387088245</v>
+      </c>
+      <c r="L7">
+        <v>-0.0553498503708771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.02981396663988099</v>
+        <v>0.03605693897186443</v>
       </c>
       <c r="C8">
-        <v>0.03407160710782745</v>
+        <v>-0.0142293583174391</v>
       </c>
       <c r="D8">
-        <v>0.008524665910146216</v>
+        <v>-0.005131568905217467</v>
       </c>
       <c r="E8">
-        <v>-0.04971879755438331</v>
+        <v>0.06961568085745848</v>
       </c>
       <c r="F8">
-        <v>-0.05295521315745486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.04461867523314402</v>
+      </c>
+      <c r="G8">
+        <v>-0.06284450914801505</v>
+      </c>
+      <c r="H8">
+        <v>-0.012751893436669</v>
+      </c>
+      <c r="I8">
+        <v>-0.09378455937570489</v>
+      </c>
+      <c r="J8">
+        <v>0.02765560434705407</v>
+      </c>
+      <c r="K8">
+        <v>0.05771925834023123</v>
+      </c>
+      <c r="L8">
+        <v>-0.02581800129080249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.07669045194033244</v>
+        <v>0.08495267538018418</v>
       </c>
       <c r="C9">
-        <v>0.05749653561171859</v>
+        <v>-0.05623662184976339</v>
       </c>
       <c r="D9">
-        <v>0.04496410786114574</v>
+        <v>0.01388089606907145</v>
       </c>
       <c r="E9">
-        <v>-0.02490672041537632</v>
+        <v>0.03592045027672595</v>
       </c>
       <c r="F9">
-        <v>-0.02967899132278239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.07459200946464216</v>
+      </c>
+      <c r="G9">
+        <v>-0.05005181461639079</v>
+      </c>
+      <c r="H9">
+        <v>0.009624473841370799</v>
+      </c>
+      <c r="I9">
+        <v>-0.08486870801611074</v>
+      </c>
+      <c r="J9">
+        <v>0.0228856934518181</v>
+      </c>
+      <c r="K9">
+        <v>0.01952787196127437</v>
+      </c>
+      <c r="L9">
+        <v>-0.01331329423366858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.03220683782915581</v>
+        <v>0.08842856653135005</v>
       </c>
       <c r="C10">
-        <v>-0.1449073926336822</v>
+        <v>0.1803058034465101</v>
       </c>
       <c r="D10">
-        <v>-0.02784869759301588</v>
+        <v>0.002568646831274593</v>
       </c>
       <c r="E10">
-        <v>-0.07215411372850444</v>
+        <v>0.05660061111188767</v>
       </c>
       <c r="F10">
-        <v>-0.03646632711873542</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01333263493557963</v>
+      </c>
+      <c r="G10">
+        <v>0.04188227151219349</v>
+      </c>
+      <c r="H10">
+        <v>-0.01263906031276839</v>
+      </c>
+      <c r="I10">
+        <v>0.02172417246850351</v>
+      </c>
+      <c r="J10">
+        <v>-0.03563082701792999</v>
+      </c>
+      <c r="K10">
+        <v>-0.02212445800454103</v>
+      </c>
+      <c r="L10">
+        <v>-0.00711780150676446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.07199931353166418</v>
+        <v>0.06977194075663463</v>
       </c>
       <c r="C11">
-        <v>0.06298841217973217</v>
+        <v>-0.05909370761749438</v>
       </c>
       <c r="D11">
-        <v>0.05137754456102838</v>
+        <v>0.02777920116952116</v>
       </c>
       <c r="E11">
-        <v>-0.03428118372447933</v>
+        <v>0.02038466726811504</v>
       </c>
       <c r="F11">
-        <v>0.007482563634763193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.05009069419963387</v>
+      </c>
+      <c r="G11">
+        <v>-0.07295052346413052</v>
+      </c>
+      <c r="H11">
+        <v>0.01343444576301508</v>
+      </c>
+      <c r="I11">
+        <v>-0.07217596494575278</v>
+      </c>
+      <c r="J11">
+        <v>-0.08131094750832146</v>
+      </c>
+      <c r="K11">
+        <v>-0.01146657623849487</v>
+      </c>
+      <c r="L11">
+        <v>0.03562213282434686</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.06954414725691388</v>
+        <v>0.07106208822478016</v>
       </c>
       <c r="C12">
-        <v>0.03802361360286306</v>
+        <v>-0.04951836710230909</v>
       </c>
       <c r="D12">
-        <v>0.0374255547027011</v>
+        <v>0.00830121717607857</v>
       </c>
       <c r="E12">
-        <v>-0.0218559600496339</v>
+        <v>0.01689824206966139</v>
       </c>
       <c r="F12">
-        <v>-0.01309615798888979</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.04358874192148243</v>
+      </c>
+      <c r="G12">
+        <v>-0.06964120519340762</v>
+      </c>
+      <c r="H12">
+        <v>0.00726015569019865</v>
+      </c>
+      <c r="I12">
+        <v>-0.09299035883158904</v>
+      </c>
+      <c r="J12">
+        <v>-0.06457126086056211</v>
+      </c>
+      <c r="K12">
+        <v>-0.02590835255490325</v>
+      </c>
+      <c r="L12">
+        <v>-0.01280250511569538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.07534983284093143</v>
+        <v>0.06212140801248637</v>
       </c>
       <c r="C13">
-        <v>0.02912051635616084</v>
+        <v>-0.0393968318244004</v>
       </c>
       <c r="D13">
-        <v>0.006107371451526704</v>
+        <v>-0.01685915406524685</v>
       </c>
       <c r="E13">
-        <v>-0.02477505980467628</v>
+        <v>0.032154971573628</v>
       </c>
       <c r="F13">
-        <v>-0.01858792069944879</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.005516147277935322</v>
+      </c>
+      <c r="G13">
+        <v>-0.03580108468458768</v>
+      </c>
+      <c r="H13">
+        <v>0.004956947421190805</v>
+      </c>
+      <c r="I13">
+        <v>-0.06774854334688189</v>
+      </c>
+      <c r="J13">
+        <v>-0.003402045002827562</v>
+      </c>
+      <c r="K13">
+        <v>0.05452837043425026</v>
+      </c>
+      <c r="L13">
+        <v>-0.06395111097140893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.03614309358842364</v>
+        <v>0.04392812488279745</v>
       </c>
       <c r="C14">
-        <v>0.002169580424745738</v>
+        <v>-0.01587469035249791</v>
       </c>
       <c r="D14">
-        <v>0.03960164267167449</v>
+        <v>0.01667758210303723</v>
       </c>
       <c r="E14">
-        <v>-0.007419456145721613</v>
+        <v>0.00937111602345461</v>
       </c>
       <c r="F14">
-        <v>-0.01784329109719049</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.05732722348253777</v>
+      </c>
+      <c r="G14">
+        <v>-0.02656414051836606</v>
+      </c>
+      <c r="H14">
+        <v>0.04270300057900029</v>
+      </c>
+      <c r="I14">
+        <v>-0.06291965618977807</v>
+      </c>
+      <c r="J14">
+        <v>0.03248824701376953</v>
+      </c>
+      <c r="K14">
+        <v>0.03955605070707753</v>
+      </c>
+      <c r="L14">
+        <v>-0.01151946458001104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>-0.05248099152119438</v>
+        <v>0.04070369818675012</v>
       </c>
       <c r="C15">
-        <v>0.01284349762625821</v>
+        <v>-0.01718825967948898</v>
       </c>
       <c r="D15">
-        <v>-0.008031766610469272</v>
+        <v>-0.02523249051323523</v>
       </c>
       <c r="E15">
-        <v>-0.006838443027537863</v>
+        <v>0.005558808805566073</v>
       </c>
       <c r="F15">
-        <v>-0.03028832078272897</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.01317871308140174</v>
+      </c>
+      <c r="G15">
+        <v>-0.01340662343185008</v>
+      </c>
+      <c r="H15">
+        <v>0.008166401617859847</v>
+      </c>
+      <c r="I15">
+        <v>-0.02568349043714833</v>
+      </c>
+      <c r="J15">
+        <v>0.04816117926353482</v>
+      </c>
+      <c r="K15">
+        <v>0.04869324621698336</v>
+      </c>
+      <c r="L15">
+        <v>-0.03188808713090752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.0599165272608405</v>
+        <v>0.07012766918944155</v>
       </c>
       <c r="C16">
-        <v>0.05823844036884115</v>
+        <v>-0.06385006130065871</v>
       </c>
       <c r="D16">
-        <v>0.04397124401160048</v>
+        <v>0.01408068410243603</v>
       </c>
       <c r="E16">
-        <v>-0.01575133642062436</v>
+        <v>0.02189397267031357</v>
       </c>
       <c r="F16">
-        <v>-0.0218583033386449</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.06065874846867424</v>
+      </c>
+      <c r="G16">
+        <v>-0.04599168406714801</v>
+      </c>
+      <c r="H16">
+        <v>0.01702319466713345</v>
+      </c>
+      <c r="I16">
+        <v>-0.07155644575631871</v>
+      </c>
+      <c r="J16">
+        <v>-0.05816564470082878</v>
+      </c>
+      <c r="K16">
+        <v>-0.009518971649566853</v>
+      </c>
+      <c r="L16">
+        <v>0.02574966440035079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1343,28 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1381,28 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1419,294 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.06051585631457979</v>
+        <v>0.05433782580894807</v>
       </c>
       <c r="C20">
-        <v>0.04852105771094806</v>
+        <v>-0.04032171396342873</v>
       </c>
       <c r="D20">
-        <v>0.005777859239100379</v>
+        <v>0.0113998283746357</v>
       </c>
       <c r="E20">
-        <v>-0.02953787908780554</v>
+        <v>0.02405366653365947</v>
       </c>
       <c r="F20">
-        <v>-0.01572477546240621</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.009829229834007034</v>
+      </c>
+      <c r="G20">
+        <v>-0.05649913206077185</v>
+      </c>
+      <c r="H20">
+        <v>0.02743423700900281</v>
+      </c>
+      <c r="I20">
+        <v>-0.1098926992866645</v>
+      </c>
+      <c r="J20">
+        <v>-0.01252315075810893</v>
+      </c>
+      <c r="K20">
+        <v>0.005719728176707437</v>
+      </c>
+      <c r="L20">
+        <v>-0.04801141448487294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>-0.03031939901954706</v>
+        <v>0.02620728208478583</v>
       </c>
       <c r="C21">
-        <v>0.02807014458630065</v>
+        <v>-0.01927726823329982</v>
       </c>
       <c r="D21">
-        <v>-0.05215714938241298</v>
+        <v>-0.0375174573356539</v>
       </c>
       <c r="E21">
-        <v>-0.01092240292329501</v>
+        <v>0.02506416329815755</v>
       </c>
       <c r="F21">
-        <v>-0.07325394434813685</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.004903399485794511</v>
+      </c>
+      <c r="G21">
+        <v>-0.01934967813534386</v>
+      </c>
+      <c r="H21">
+        <v>-0.06354348967196337</v>
+      </c>
+      <c r="I21">
+        <v>-0.03151199172231173</v>
+      </c>
+      <c r="J21">
+        <v>0.07145554610219308</v>
+      </c>
+      <c r="K21">
+        <v>0.04628342846392523</v>
+      </c>
+      <c r="L21">
+        <v>-0.02374462338763038</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.107936895694969</v>
+        <v>0.08383150066403067</v>
       </c>
       <c r="C22">
-        <v>0.1240375292588155</v>
+        <v>-0.09383646890292717</v>
       </c>
       <c r="D22">
-        <v>-0.1336442456354751</v>
+        <v>-0.4774492768497157</v>
       </c>
       <c r="E22">
-        <v>0.01751510948526825</v>
+        <v>0.2781705940849426</v>
       </c>
       <c r="F22">
-        <v>-0.4241762005452315</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.1433200366138914</v>
+      </c>
+      <c r="G22">
+        <v>0.300209730442849</v>
+      </c>
+      <c r="H22">
+        <v>-0.01451138884528263</v>
+      </c>
+      <c r="I22">
+        <v>0.1907212788517257</v>
+      </c>
+      <c r="J22">
+        <v>0.01433219995480884</v>
+      </c>
+      <c r="K22">
+        <v>-0.06517624871466106</v>
+      </c>
+      <c r="L22">
+        <v>-0.03505025665691251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>-0.1093321590011262</v>
+        <v>0.0848806736501876</v>
       </c>
       <c r="C23">
-        <v>0.1241194790069579</v>
+        <v>-0.09461622323088896</v>
       </c>
       <c r="D23">
-        <v>-0.1339669638337408</v>
+        <v>-0.4792737777076267</v>
       </c>
       <c r="E23">
-        <v>0.01647894889488741</v>
+        <v>0.2806478462406135</v>
       </c>
       <c r="F23">
-        <v>-0.4250557605882326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.1461137860945782</v>
+      </c>
+      <c r="G23">
+        <v>0.2957345515458294</v>
+      </c>
+      <c r="H23">
+        <v>-0.01364823438893269</v>
+      </c>
+      <c r="I23">
+        <v>0.1920268077236747</v>
+      </c>
+      <c r="J23">
+        <v>0.01985464043620363</v>
+      </c>
+      <c r="K23">
+        <v>-0.06643672487691508</v>
+      </c>
+      <c r="L23">
+        <v>-0.03117364314657178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>-0.07900966265522764</v>
+        <v>0.07815502451267024</v>
       </c>
       <c r="C24">
-        <v>0.05522450586187747</v>
+        <v>-0.06189012655366033</v>
       </c>
       <c r="D24">
-        <v>0.03842016913346639</v>
+        <v>0.009622886165882152</v>
       </c>
       <c r="E24">
-        <v>-0.03722860851875344</v>
+        <v>0.03149553960155834</v>
       </c>
       <c r="F24">
-        <v>-0.03015931741733139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.06028696934813216</v>
+      </c>
+      <c r="G24">
+        <v>-0.06903744412499041</v>
+      </c>
+      <c r="H24">
+        <v>0.00174798366577671</v>
+      </c>
+      <c r="I24">
+        <v>-0.07910697660645483</v>
+      </c>
+      <c r="J24">
+        <v>-0.05393129851525844</v>
+      </c>
+      <c r="K24">
+        <v>-0.02009044646355805</v>
+      </c>
+      <c r="L24">
+        <v>0.01270704650475816</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>-0.07584934436449529</v>
+        <v>0.0759318971192648</v>
       </c>
       <c r="C25">
-        <v>0.03659824430074272</v>
+        <v>-0.0423821245334936</v>
       </c>
       <c r="D25">
-        <v>0.04021285918970968</v>
+        <v>0.01597097619543435</v>
       </c>
       <c r="E25">
-        <v>-0.04584302123398432</v>
+        <v>0.03127623625950196</v>
       </c>
       <c r="F25">
-        <v>-0.04480605003229452</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.06555670229012334</v>
+      </c>
+      <c r="G25">
+        <v>-0.06514369123220107</v>
+      </c>
+      <c r="H25">
+        <v>0.0228197753128782</v>
+      </c>
+      <c r="I25">
+        <v>-0.09385629599674222</v>
+      </c>
+      <c r="J25">
+        <v>-0.0638413653939013</v>
+      </c>
+      <c r="K25">
+        <v>-0.03990910134216915</v>
+      </c>
+      <c r="L25">
+        <v>0.02409525472960551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>-0.0523649242987278</v>
+        <v>0.04560146931727269</v>
       </c>
       <c r="C26">
-        <v>0.02718618335514109</v>
+        <v>-0.02517386654070201</v>
       </c>
       <c r="D26">
-        <v>0.004627342239322548</v>
+        <v>-0.02098999687827063</v>
       </c>
       <c r="E26">
-        <v>-0.03828886223816137</v>
+        <v>0.01659847823478971</v>
       </c>
       <c r="F26">
-        <v>0.01149487766338432</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.005234123913058544</v>
+      </c>
+      <c r="G26">
+        <v>-0.02761095791576239</v>
+      </c>
+      <c r="H26">
+        <v>0.01264271858815645</v>
+      </c>
+      <c r="I26">
+        <v>-0.0405226434210718</v>
+      </c>
+      <c r="J26">
+        <v>0.04159339733080583</v>
+      </c>
+      <c r="K26">
+        <v>0.1174644916625151</v>
+      </c>
+      <c r="L26">
+        <v>-0.03755584547518159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1723,370 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>-0.07029376576354576</v>
+        <v>0.1121809750494104</v>
       </c>
       <c r="C28">
-        <v>-0.2948384271117728</v>
+        <v>0.2956323683286213</v>
       </c>
       <c r="D28">
-        <v>-0.025840038606685</v>
+        <v>-0.01245639478354903</v>
       </c>
       <c r="E28">
-        <v>-0.08043540298498382</v>
+        <v>0.03783395159271601</v>
       </c>
       <c r="F28">
-        <v>-0.001038622142857067</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.00178529565135129</v>
+      </c>
+      <c r="G28">
+        <v>0.001570211316041479</v>
+      </c>
+      <c r="H28">
+        <v>-0.03001419592032959</v>
+      </c>
+      <c r="I28">
+        <v>0.02444834847519067</v>
+      </c>
+      <c r="J28">
+        <v>0.01448472706238766</v>
+      </c>
+      <c r="K28">
+        <v>0.06154273926432524</v>
+      </c>
+      <c r="L28">
+        <v>-0.0195252905412208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>-0.05059919551636503</v>
+        <v>0.04857266384117803</v>
       </c>
       <c r="C29">
-        <v>0.001100058957563891</v>
+        <v>-0.01806511638534613</v>
       </c>
       <c r="D29">
-        <v>0.0202246921489715</v>
+        <v>0.004558880589839604</v>
       </c>
       <c r="E29">
-        <v>-0.01357099798935264</v>
+        <v>0.02405975857307225</v>
       </c>
       <c r="F29">
-        <v>-0.04034909148528836</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.04263348251846514</v>
+      </c>
+      <c r="G29">
+        <v>-0.02906729149360334</v>
+      </c>
+      <c r="H29">
+        <v>0.04534485450868213</v>
+      </c>
+      <c r="I29">
+        <v>-0.0465332160517131</v>
+      </c>
+      <c r="J29">
+        <v>0.02160525798539616</v>
+      </c>
+      <c r="K29">
+        <v>0.02755509266715172</v>
+      </c>
+      <c r="L29">
+        <v>-0.01492572499230352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>-0.1522096646374809</v>
+        <v>0.1216884392573335</v>
       </c>
       <c r="C30">
-        <v>0.06884078498516706</v>
+        <v>-0.07344263707990233</v>
       </c>
       <c r="D30">
-        <v>0.06564937038381073</v>
+        <v>-0.0261137789116807</v>
       </c>
       <c r="E30">
-        <v>-0.07689933802772732</v>
+        <v>0.08997521130198768</v>
       </c>
       <c r="F30">
-        <v>-0.08031175010554248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1037336419952055</v>
+      </c>
+      <c r="G30">
+        <v>-0.08739134058414866</v>
+      </c>
+      <c r="H30">
+        <v>-0.05149611282369315</v>
+      </c>
+      <c r="I30">
+        <v>-0.2039769171522598</v>
+      </c>
+      <c r="J30">
+        <v>-0.03044178639888458</v>
+      </c>
+      <c r="K30">
+        <v>-0.04225783844209863</v>
+      </c>
+      <c r="L30">
+        <v>-0.4730983967790475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-0.05752758680381045</v>
+        <v>0.04371521927570449</v>
       </c>
       <c r="C31">
-        <v>0.01357102230080236</v>
+        <v>-0.0418255145278627</v>
       </c>
       <c r="D31">
-        <v>0.02228780112430851</v>
+        <v>-0.009763812476148409</v>
       </c>
       <c r="E31">
-        <v>-0.0002240313079294379</v>
+        <v>-0.001830624324776389</v>
       </c>
       <c r="F31">
-        <v>-0.006844938069632632</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01660745678083599</v>
+      </c>
+      <c r="G31">
+        <v>-0.004996226863070915</v>
+      </c>
+      <c r="H31">
+        <v>0.05473675095129668</v>
+      </c>
+      <c r="I31">
+        <v>-0.04493571694675185</v>
+      </c>
+      <c r="J31">
+        <v>0.0201216570649523</v>
+      </c>
+      <c r="K31">
+        <v>0.005738802448136128</v>
+      </c>
+      <c r="L31">
+        <v>-0.01920607407736676</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>-0.04840827990096272</v>
+        <v>0.05079648122136559</v>
       </c>
       <c r="C32">
-        <v>0.01891628672607669</v>
+        <v>-0.002819597170470576</v>
       </c>
       <c r="D32">
-        <v>-0.01105542591099963</v>
+        <v>-0.04721238835449894</v>
       </c>
       <c r="E32">
-        <v>0.005120021196553809</v>
+        <v>0.02645659816032577</v>
       </c>
       <c r="F32">
-        <v>-0.06842671211376053</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.03432698030909558</v>
+      </c>
+      <c r="G32">
+        <v>-0.002069182995778301</v>
+      </c>
+      <c r="H32">
+        <v>0.005640407303200047</v>
+      </c>
+      <c r="I32">
+        <v>-0.01253514631634516</v>
+      </c>
+      <c r="J32">
+        <v>0.006790806318854696</v>
+      </c>
+      <c r="K32">
+        <v>0.09007402558235371</v>
+      </c>
+      <c r="L32">
+        <v>-0.09314905708598781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>-0.1060896733592116</v>
+        <v>0.104286529660586</v>
       </c>
       <c r="C33">
-        <v>0.03861051294790394</v>
+        <v>-0.05831566080074937</v>
       </c>
       <c r="D33">
-        <v>0.04886965622827889</v>
+        <v>-0.008699564827736022</v>
       </c>
       <c r="E33">
-        <v>-0.01400320550488024</v>
+        <v>-0.008386186293433795</v>
       </c>
       <c r="F33">
-        <v>-0.000790421369603952</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.05027528203343919</v>
+      </c>
+      <c r="G33">
+        <v>-0.03527416573535807</v>
+      </c>
+      <c r="H33">
+        <v>0.04155321136864358</v>
+      </c>
+      <c r="I33">
+        <v>-0.06853821683611516</v>
+      </c>
+      <c r="J33">
+        <v>0.02257650293488421</v>
+      </c>
+      <c r="K33">
+        <v>0.0210833803723849</v>
+      </c>
+      <c r="L33">
+        <v>-0.0128755941505499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>-0.06233053915828989</v>
+        <v>0.06472649739111018</v>
       </c>
       <c r="C34">
-        <v>0.05679099343525986</v>
+        <v>-0.05081551622570848</v>
       </c>
       <c r="D34">
-        <v>0.02539819013611738</v>
+        <v>0.01458224725236587</v>
       </c>
       <c r="E34">
-        <v>-0.02104103512470085</v>
+        <v>0.01741455603953827</v>
       </c>
       <c r="F34">
-        <v>-0.03938519147486232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.0487020719146964</v>
+      </c>
+      <c r="G34">
+        <v>-0.0616315227457172</v>
+      </c>
+      <c r="H34">
+        <v>0.02565963170613972</v>
+      </c>
+      <c r="I34">
+        <v>-0.07567809936641207</v>
+      </c>
+      <c r="J34">
+        <v>-0.04879005347405337</v>
+      </c>
+      <c r="K34">
+        <v>-0.02309643417279593</v>
+      </c>
+      <c r="L34">
+        <v>0.04641699773513384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>-0.04435711531170917</v>
+        <v>0.03509693504273297</v>
       </c>
       <c r="C35">
-        <v>0.01605001273868389</v>
+        <v>-0.02268583620319841</v>
       </c>
       <c r="D35">
-        <v>0.0105380355205702</v>
+        <v>-0.002410248916867188</v>
       </c>
       <c r="E35">
-        <v>-0.003275609501520704</v>
+        <v>-0.001772850263366148</v>
       </c>
       <c r="F35">
-        <v>-0.01554072282168162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.01435296138098298</v>
+      </c>
+      <c r="G35">
+        <v>0.0002396177555754114</v>
+      </c>
+      <c r="H35">
+        <v>0.02501077017809426</v>
+      </c>
+      <c r="I35">
+        <v>-0.06650669727978126</v>
+      </c>
+      <c r="J35">
+        <v>-0.01730547356028792</v>
+      </c>
+      <c r="K35">
+        <v>0.00392169556812727</v>
+      </c>
+      <c r="L35">
+        <v>-0.03441610054267382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>-0.0387756782350227</v>
+        <v>0.03385081535543885</v>
       </c>
       <c r="C36">
-        <v>0.01846263992863306</v>
+        <v>-0.01713409409906611</v>
       </c>
       <c r="D36">
-        <v>0.008159525938670364</v>
+        <v>-0.01094962690465307</v>
       </c>
       <c r="E36">
-        <v>-0.03388840351434858</v>
+        <v>0.02721523399614171</v>
       </c>
       <c r="F36">
-        <v>-0.02362663580395178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02283506289330606</v>
+      </c>
+      <c r="G36">
+        <v>-0.03698614279996456</v>
+      </c>
+      <c r="H36">
+        <v>0.01343867825988384</v>
+      </c>
+      <c r="I36">
+        <v>-0.06660680187873579</v>
+      </c>
+      <c r="J36">
+        <v>0.01577940047987822</v>
+      </c>
+      <c r="K36">
+        <v>0.02403946480788911</v>
+      </c>
+      <c r="L36">
+        <v>-0.0206828421208258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +2103,180 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>-0.05924694119846028</v>
+        <v>0.04633390808931121</v>
       </c>
       <c r="C38">
-        <v>0.01682286990464114</v>
+        <v>-0.04314192175393267</v>
       </c>
       <c r="D38">
-        <v>-0.001355410722974522</v>
+        <v>-0.01531959226509364</v>
       </c>
       <c r="E38">
-        <v>0.01310234240675046</v>
+        <v>0.01558265716225199</v>
       </c>
       <c r="F38">
-        <v>-0.07895833693977015</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.005536617917287803</v>
+      </c>
+      <c r="G38">
+        <v>0.02628099312059097</v>
+      </c>
+      <c r="H38">
+        <v>0.0149359655547052</v>
+      </c>
+      <c r="I38">
+        <v>0.1132202379527043</v>
+      </c>
+      <c r="J38">
+        <v>-0.01866263031707366</v>
+      </c>
+      <c r="K38">
+        <v>0.07525048974152601</v>
+      </c>
+      <c r="L38">
+        <v>-0.07359761548833652</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>-0.09619204662427809</v>
+        <v>0.09528891291845455</v>
       </c>
       <c r="C39">
-        <v>0.05538226162616523</v>
+        <v>-0.06114055540249849</v>
       </c>
       <c r="D39">
-        <v>0.06472713092829961</v>
+        <v>0.008566154483389481</v>
       </c>
       <c r="E39">
-        <v>-0.008089583100675164</v>
+        <v>0.02322381997764522</v>
       </c>
       <c r="F39">
-        <v>-0.03386531267410881</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.07070420771069272</v>
+      </c>
+      <c r="G39">
+        <v>-0.05579443235684771</v>
+      </c>
+      <c r="H39">
+        <v>0.008817992084196162</v>
+      </c>
+      <c r="I39">
+        <v>-0.09773328343356248</v>
+      </c>
+      <c r="J39">
+        <v>-0.1460362305111063</v>
+      </c>
+      <c r="K39">
+        <v>-0.02248870611382761</v>
+      </c>
+      <c r="L39">
+        <v>-0.08163280467257041</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>-0.08107992816654495</v>
+        <v>0.04454852021127449</v>
       </c>
       <c r="C40">
-        <v>0.02886989475446909</v>
+        <v>-0.0559740398075647</v>
       </c>
       <c r="D40">
-        <v>0.02919516382812528</v>
+        <v>-0.06440524436385157</v>
       </c>
       <c r="E40">
-        <v>-0.0301088091536247</v>
+        <v>0.02271038683412971</v>
       </c>
       <c r="F40">
-        <v>-0.1534807794880295</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.0501116902362875</v>
+      </c>
+      <c r="G40">
+        <v>-0.08388552053860536</v>
+      </c>
+      <c r="H40">
+        <v>-0.09258564575450361</v>
+      </c>
+      <c r="I40">
+        <v>-0.1002933180685933</v>
+      </c>
+      <c r="J40">
+        <v>-0.1689297034875552</v>
+      </c>
+      <c r="K40">
+        <v>0.02821725015310867</v>
+      </c>
+      <c r="L40">
+        <v>-0.1171624761106462</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>-0.06211407785631933</v>
+        <v>0.04549916359551946</v>
       </c>
       <c r="C41">
-        <v>0.04335614723823117</v>
+        <v>-0.03620937649843469</v>
       </c>
       <c r="D41">
-        <v>0.02963517826425555</v>
+        <v>0.01822367936233676</v>
       </c>
       <c r="E41">
-        <v>0.002314579739972819</v>
+        <v>-0.01196833074736869</v>
       </c>
       <c r="F41">
-        <v>-0.01082170642098881</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.001290213334304024</v>
+      </c>
+      <c r="G41">
+        <v>-0.02872676673096329</v>
+      </c>
+      <c r="H41">
+        <v>0.0349131133432608</v>
+      </c>
+      <c r="I41">
+        <v>-0.0103635568397676</v>
+      </c>
+      <c r="J41">
+        <v>-0.02298451553045126</v>
+      </c>
+      <c r="K41">
+        <v>0.02754365505980117</v>
+      </c>
+      <c r="L41">
+        <v>-0.03587810745696397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2293,104 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>-0.06239550220642927</v>
+        <v>0.05811519621130157</v>
       </c>
       <c r="C43">
-        <v>0.02652349916329246</v>
+        <v>-0.04356647260805518</v>
       </c>
       <c r="D43">
-        <v>0.01763875570413284</v>
+        <v>0.005126966465276327</v>
       </c>
       <c r="E43">
-        <v>-0.02024003901043472</v>
+        <v>0.02038479665595591</v>
       </c>
       <c r="F43">
-        <v>-0.008170323848441732</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01479617554508487</v>
+      </c>
+      <c r="G43">
+        <v>-0.01578758999908432</v>
+      </c>
+      <c r="H43">
+        <v>0.05411106444628686</v>
+      </c>
+      <c r="I43">
+        <v>-0.01712506964426076</v>
+      </c>
+      <c r="J43">
+        <v>-0.01598875289628919</v>
+      </c>
+      <c r="K43">
+        <v>0.01317730939301764</v>
+      </c>
+      <c r="L43">
+        <v>-0.001001741106163854</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>-0.07869468334050671</v>
+        <v>0.08618364387897244</v>
       </c>
       <c r="C44">
-        <v>0.03547536099087137</v>
+        <v>-0.05175221168696303</v>
       </c>
       <c r="D44">
-        <v>-0.02377236040042977</v>
+        <v>-0.01964186762125618</v>
       </c>
       <c r="E44">
-        <v>-0.08646589821354875</v>
+        <v>0.1215328241514495</v>
       </c>
       <c r="F44">
-        <v>-0.1187816286640678</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.05702189515088234</v>
+      </c>
+      <c r="G44">
+        <v>-0.0901355634720903</v>
+      </c>
+      <c r="H44">
+        <v>0.03009674038631949</v>
+      </c>
+      <c r="I44">
+        <v>-0.1218389456774527</v>
+      </c>
+      <c r="J44">
+        <v>-0.06725422083528984</v>
+      </c>
+      <c r="K44">
+        <v>0.009694278747852678</v>
+      </c>
+      <c r="L44">
+        <v>0.00156455572970691</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2407,256 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>-0.02679509410604305</v>
+        <v>0.04376734855574174</v>
       </c>
       <c r="C46">
-        <v>0.03004750138077565</v>
+        <v>-0.03455999601737075</v>
       </c>
       <c r="D46">
-        <v>0.005918823627486882</v>
+        <v>0.0003657840870661899</v>
       </c>
       <c r="E46">
-        <v>-0.019235977696243</v>
+        <v>0.03219171316441139</v>
       </c>
       <c r="F46">
-        <v>-0.04535166254878143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.0383714732569537</v>
+      </c>
+      <c r="G46">
+        <v>-0.0106625189843146</v>
+      </c>
+      <c r="H46">
+        <v>0.02068342845434605</v>
+      </c>
+      <c r="I46">
+        <v>-0.0437952082546093</v>
+      </c>
+      <c r="J46">
+        <v>0.03645158238961103</v>
+      </c>
+      <c r="K46">
+        <v>0.0669989053768654</v>
+      </c>
+      <c r="L46">
+        <v>0.005357138754299758</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>-0.04126179341054283</v>
+        <v>0.04823738071774292</v>
       </c>
       <c r="C47">
-        <v>-0.004667793801009106</v>
+        <v>-0.01947954820836027</v>
       </c>
       <c r="D47">
-        <v>-0.008112252664444415</v>
+        <v>-0.02399092439377256</v>
       </c>
       <c r="E47">
-        <v>-0.01550046844159882</v>
+        <v>0.01546751122571197</v>
       </c>
       <c r="F47">
-        <v>-0.07150974740728509</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.02829457586277122</v>
+      </c>
+      <c r="G47">
+        <v>-0.007347536918388305</v>
+      </c>
+      <c r="H47">
+        <v>0.03795150399984518</v>
+      </c>
+      <c r="I47">
+        <v>-0.03192717956316175</v>
+      </c>
+      <c r="J47">
+        <v>0.03056374402985548</v>
+      </c>
+      <c r="K47">
+        <v>-0.02052952066481426</v>
+      </c>
+      <c r="L47">
+        <v>-0.004361702914018915</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>-0.04759646560187526</v>
+        <v>0.04547922728093478</v>
       </c>
       <c r="C48">
-        <v>0.02377385831594012</v>
+        <v>-0.01816144187412821</v>
       </c>
       <c r="D48">
-        <v>0.00598584570997298</v>
+        <v>-0.02619746351446559</v>
       </c>
       <c r="E48">
-        <v>-0.02409590225765454</v>
+        <v>0.02029740608095712</v>
       </c>
       <c r="F48">
-        <v>-0.05364152409831099</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02458487309140899</v>
+      </c>
+      <c r="G48">
+        <v>-0.0151155832304139</v>
+      </c>
+      <c r="H48">
+        <v>-0.004394135651360656</v>
+      </c>
+      <c r="I48">
+        <v>-0.06119976567334508</v>
+      </c>
+      <c r="J48">
+        <v>0.01620473457686899</v>
+      </c>
+      <c r="K48">
+        <v>0.006291269294173638</v>
+      </c>
+      <c r="L48">
+        <v>-0.03467587303174804</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>-0.149732259218639</v>
+        <v>0.2074598180678181</v>
       </c>
       <c r="C49">
-        <v>0.03068271815656173</v>
+        <v>-0.03049067528354685</v>
       </c>
       <c r="D49">
-        <v>0.1247717985051082</v>
+        <v>0.1786793520601047</v>
       </c>
       <c r="E49">
-        <v>-0.02877939793869981</v>
+        <v>-0.05324903921003928</v>
       </c>
       <c r="F49">
-        <v>0.1039539200685391</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.01403586455843916</v>
+      </c>
+      <c r="G49">
+        <v>0.2035753652500826</v>
+      </c>
+      <c r="H49">
+        <v>-0.1879396609959562</v>
+      </c>
+      <c r="I49">
+        <v>0.07809794436279299</v>
+      </c>
+      <c r="J49">
+        <v>-0.1465263175294601</v>
+      </c>
+      <c r="K49">
+        <v>-0.02379291870811701</v>
+      </c>
+      <c r="L49">
+        <v>0.1504355481529213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>-0.06537933132308776</v>
+        <v>0.05259379038732442</v>
       </c>
       <c r="C50">
-        <v>0.02035568774574285</v>
+        <v>-0.04068385533525397</v>
       </c>
       <c r="D50">
-        <v>0.02717839357161799</v>
+        <v>-0.008666122103907962</v>
       </c>
       <c r="E50">
-        <v>-0.001828114913962769</v>
+        <v>-0.004139219181902684</v>
       </c>
       <c r="F50">
-        <v>-0.02792117345925433</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.03909710758855911</v>
+      </c>
+      <c r="G50">
+        <v>-0.02208609416777876</v>
+      </c>
+      <c r="H50">
+        <v>0.05584336551026063</v>
+      </c>
+      <c r="I50">
+        <v>-0.03017793521287037</v>
+      </c>
+      <c r="J50">
+        <v>0.04427664851948367</v>
+      </c>
+      <c r="K50">
+        <v>0.003416316532436628</v>
+      </c>
+      <c r="L50">
+        <v>-0.03561139449429806</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>-0.04195308799145557</v>
+        <v>0.0407652161344359</v>
       </c>
       <c r="C51">
-        <v>0.008588990646072259</v>
+        <v>-0.008438287728767599</v>
       </c>
       <c r="D51">
-        <v>-0.006279118337156579</v>
+        <v>0.003393759115320203</v>
       </c>
       <c r="E51">
-        <v>-0.001431367362298401</v>
+        <v>0.01646377540950962</v>
       </c>
       <c r="F51">
-        <v>-0.01099220965819897</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.03628030367757669</v>
+      </c>
+      <c r="G51">
+        <v>0.005059558523565642</v>
+      </c>
+      <c r="H51">
+        <v>-0.01171202739281291</v>
+      </c>
+      <c r="I51">
+        <v>0.004551009396869896</v>
+      </c>
+      <c r="J51">
+        <v>-0.04874639416185118</v>
+      </c>
+      <c r="K51">
+        <v>-0.04028158342130861</v>
+      </c>
+      <c r="L51">
+        <v>0.05096833092348483</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2673,180 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>-0.150973971869179</v>
+        <v>0.1521934648461621</v>
       </c>
       <c r="C53">
-        <v>-0.0232795643679078</v>
+        <v>-0.02864628729344514</v>
       </c>
       <c r="D53">
-        <v>0.07896097441864607</v>
+        <v>0.06227567745513556</v>
       </c>
       <c r="E53">
-        <v>-0.005979651578701592</v>
+        <v>-0.03267615937889926</v>
       </c>
       <c r="F53">
-        <v>0.06729679273348878</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.01664673149633196</v>
+      </c>
+      <c r="G53">
+        <v>0.03139227326912435</v>
+      </c>
+      <c r="H53">
+        <v>0.2384384089107819</v>
+      </c>
+      <c r="I53">
+        <v>0.07496803771126997</v>
+      </c>
+      <c r="J53">
+        <v>0.02974795239665982</v>
+      </c>
+      <c r="K53">
+        <v>-0.03520467239488796</v>
+      </c>
+      <c r="L53">
+        <v>0.05222180463104083</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>-0.06125451374507625</v>
+        <v>0.06104733720654242</v>
       </c>
       <c r="C54">
-        <v>0.02701335936007536</v>
+        <v>-0.02145053441424077</v>
       </c>
       <c r="D54">
-        <v>-0.0297242118919273</v>
+        <v>-0.02858156076661372</v>
       </c>
       <c r="E54">
-        <v>-0.04288991421811142</v>
+        <v>0.04748327907782508</v>
       </c>
       <c r="F54">
-        <v>-0.05144881713266461</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.03473617931985325</v>
+      </c>
+      <c r="G54">
+        <v>-0.08547198260379617</v>
+      </c>
+      <c r="H54">
+        <v>0.01706020161101902</v>
+      </c>
+      <c r="I54">
+        <v>-0.1054423391392231</v>
+      </c>
+      <c r="J54">
+        <v>0.05034840272921082</v>
+      </c>
+      <c r="K54">
+        <v>0.04426487844504115</v>
+      </c>
+      <c r="L54">
+        <v>-0.04053050420565348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>-0.09276016695609041</v>
+        <v>0.09271846625808511</v>
       </c>
       <c r="C55">
-        <v>-0.005014892587383605</v>
+        <v>-0.03182889741185908</v>
       </c>
       <c r="D55">
-        <v>0.05535747542256889</v>
+        <v>0.04577363631669526</v>
       </c>
       <c r="E55">
-        <v>-0.02202621546515191</v>
+        <v>-0.0007678611192105441</v>
       </c>
       <c r="F55">
-        <v>-0.004357177936880804</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.02973244592592098</v>
+      </c>
+      <c r="G55">
+        <v>-0.02726658397653575</v>
+      </c>
+      <c r="H55">
+        <v>0.1645847735404847</v>
+      </c>
+      <c r="I55">
+        <v>0.008312879546826758</v>
+      </c>
+      <c r="J55">
+        <v>0.01818042337990505</v>
+      </c>
+      <c r="K55">
+        <v>-0.01079200216396929</v>
+      </c>
+      <c r="L55">
+        <v>0.07501720948712845</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>-0.1500818813689784</v>
+        <v>0.1471905511505681</v>
       </c>
       <c r="C56">
-        <v>-0.03229033100859489</v>
+        <v>-0.04446728264581094</v>
       </c>
       <c r="D56">
-        <v>0.09772511678639551</v>
+        <v>0.06368241435792206</v>
       </c>
       <c r="E56">
-        <v>-0.04555843736247025</v>
+        <v>-0.007480399095282513</v>
       </c>
       <c r="F56">
-        <v>0.06708712751820446</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.03117229446646068</v>
+      </c>
+      <c r="G56">
+        <v>0.01061181430684555</v>
+      </c>
+      <c r="H56">
+        <v>0.2427854607546064</v>
+      </c>
+      <c r="I56">
+        <v>0.09531436003259047</v>
+      </c>
+      <c r="J56">
+        <v>0.01543737285366929</v>
+      </c>
+      <c r="K56">
+        <v>-0.02916689040933956</v>
+      </c>
+      <c r="L56">
+        <v>0.005683929111955552</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,770 +2863,1472 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>-0.1069049409886009</v>
+        <v>0.06856033485553262</v>
       </c>
       <c r="C58">
-        <v>0.05900516105682375</v>
+        <v>-0.04501903839211559</v>
       </c>
       <c r="D58">
-        <v>-0.2846476137880295</v>
+        <v>-0.1519540289089171</v>
       </c>
       <c r="E58">
-        <v>-0.1100610481071567</v>
+        <v>0.1042655634407353</v>
       </c>
       <c r="F58">
-        <v>-0.1972981091724617</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.242271211311516</v>
+      </c>
+      <c r="G58">
+        <v>0.003600229608872689</v>
+      </c>
+      <c r="H58">
+        <v>-0.1481279539223291</v>
+      </c>
+      <c r="I58">
+        <v>-0.4530189940760744</v>
+      </c>
+      <c r="J58">
+        <v>-0.04568582522826156</v>
+      </c>
+      <c r="K58">
+        <v>-0.3857232706532158</v>
+      </c>
+      <c r="L58">
+        <v>-0.04895447829805311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>-0.1742738275287752</v>
+        <v>0.1996840062573627</v>
       </c>
       <c r="C59">
-        <v>-0.4236228846124211</v>
+        <v>0.326375189835084</v>
       </c>
       <c r="D59">
-        <v>-0.06642645356110066</v>
+        <v>-0.01215122118928144</v>
       </c>
       <c r="E59">
-        <v>-0.09041993729561427</v>
+        <v>0.02246195494845667</v>
       </c>
       <c r="F59">
-        <v>-0.03686430258541144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.04677843698209676</v>
+      </c>
+      <c r="G59">
+        <v>-0.04980447399822896</v>
+      </c>
+      <c r="H59">
+        <v>0.06185013536426479</v>
+      </c>
+      <c r="I59">
+        <v>0.05079552404270435</v>
+      </c>
+      <c r="J59">
+        <v>-0.0559941013289279</v>
+      </c>
+      <c r="K59">
+        <v>0.01804540035273168</v>
+      </c>
+      <c r="L59">
+        <v>0.01594495121380005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>-0.2273864951711966</v>
+        <v>0.2442117180826266</v>
       </c>
       <c r="C60">
-        <v>-0.003245760598233091</v>
+        <v>-0.06818388031367359</v>
       </c>
       <c r="D60">
-        <v>0.1059084366425121</v>
+        <v>0.1380345037879237</v>
       </c>
       <c r="E60">
-        <v>-0.06655529914472441</v>
+        <v>-0.01331325318941458</v>
       </c>
       <c r="F60">
-        <v>0.01713689961768422</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.004700621387748213</v>
+      </c>
+      <c r="G60">
+        <v>0.05603048201368861</v>
+      </c>
+      <c r="H60">
+        <v>-0.08577296893665601</v>
+      </c>
+      <c r="I60">
+        <v>0.118619012766304</v>
+      </c>
+      <c r="J60">
+        <v>0.06975808749226409</v>
+      </c>
+      <c r="K60">
+        <v>-0.1088343196408188</v>
+      </c>
+      <c r="L60">
+        <v>0.08005979712355366</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>-0.07749416859893007</v>
+        <v>0.08430825934403505</v>
       </c>
       <c r="C61">
-        <v>0.03427657589639589</v>
+        <v>-0.04483630052299473</v>
       </c>
       <c r="D61">
-        <v>0.04706400739497873</v>
+        <v>0.02054100426447756</v>
       </c>
       <c r="E61">
-        <v>-0.008795730877153043</v>
+        <v>0.02139662363726673</v>
       </c>
       <c r="F61">
-        <v>-0.008700314992002181</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.05133482653599411</v>
+      </c>
+      <c r="G61">
+        <v>-0.06470462422928484</v>
+      </c>
+      <c r="H61">
+        <v>0.05353280848556864</v>
+      </c>
+      <c r="I61">
+        <v>-0.05524117429672994</v>
+      </c>
+      <c r="J61">
+        <v>-0.07971870634826329</v>
+      </c>
+      <c r="K61">
+        <v>0.0009669275015409985</v>
+      </c>
+      <c r="L61">
+        <v>-0.02668016563830608</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>-0.1582523457468038</v>
+        <v>0.1497476393361007</v>
       </c>
       <c r="C62">
-        <v>-0.001597656156706695</v>
+        <v>-0.05230356566289569</v>
       </c>
       <c r="D62">
-        <v>0.0635177140614735</v>
+        <v>0.05510942397528012</v>
       </c>
       <c r="E62">
-        <v>0.0114777335024925</v>
+        <v>-0.053642479724012</v>
       </c>
       <c r="F62">
-        <v>0.1180298125150649</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.00663690387077206</v>
+      </c>
+      <c r="G62">
+        <v>-0.0166640358001564</v>
+      </c>
+      <c r="H62">
+        <v>0.2178076081077068</v>
+      </c>
+      <c r="I62">
+        <v>0.07623376416935559</v>
+      </c>
+      <c r="J62">
+        <v>0.06992836068662481</v>
+      </c>
+      <c r="K62">
+        <v>0.003431570321021408</v>
+      </c>
+      <c r="L62">
+        <v>0.06232709096345106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>-0.06031143982870005</v>
+        <v>0.05077558732119677</v>
       </c>
       <c r="C63">
-        <v>0.04290342876043676</v>
+        <v>-0.03012190656411065</v>
       </c>
       <c r="D63">
-        <v>0.02173228697557321</v>
+        <v>-0.006955469845209557</v>
       </c>
       <c r="E63">
-        <v>-0.01382984387029322</v>
+        <v>0.0007936637249141833</v>
       </c>
       <c r="F63">
-        <v>-0.01002615490459196</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.03677958031812663</v>
+      </c>
+      <c r="G63">
+        <v>-0.04743560738816074</v>
+      </c>
+      <c r="H63">
+        <v>0.01451654436718565</v>
+      </c>
+      <c r="I63">
+        <v>-0.05570515477779405</v>
+      </c>
+      <c r="J63">
+        <v>0.03807559312738699</v>
+      </c>
+      <c r="K63">
+        <v>0.004834555210469805</v>
+      </c>
+      <c r="L63">
+        <v>-0.02675832118263571</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>-0.1025380795922301</v>
+        <v>0.1041596855654229</v>
       </c>
       <c r="C64">
-        <v>-3.727782315875436e-05</v>
+        <v>-0.0281653555116065</v>
       </c>
       <c r="D64">
-        <v>0.0398323560352158</v>
+        <v>0.0233202741069575</v>
       </c>
       <c r="E64">
-        <v>-0.03756147792182356</v>
+        <v>0.04141836876538924</v>
       </c>
       <c r="F64">
-        <v>-0.05369059150392249</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.07499686426808358</v>
+      </c>
+      <c r="G64">
+        <v>-0.0371215627754448</v>
+      </c>
+      <c r="H64">
+        <v>-0.01719725905782288</v>
+      </c>
+      <c r="I64">
+        <v>-0.02780241031545446</v>
+      </c>
+      <c r="J64">
+        <v>-0.03379548534880178</v>
+      </c>
+      <c r="K64">
+        <v>-0.008155835708259245</v>
+      </c>
+      <c r="L64">
+        <v>-0.06033281515033117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>-0.1140263991645724</v>
+        <v>0.1285096796693789</v>
       </c>
       <c r="C65">
-        <v>0.02909217276670351</v>
+        <v>-0.02547334475901438</v>
       </c>
       <c r="D65">
-        <v>0.01788372415928144</v>
+        <v>0.03706051772672691</v>
       </c>
       <c r="E65">
-        <v>-0.0454423739930651</v>
+        <v>-0.005743533060282354</v>
       </c>
       <c r="F65">
-        <v>-0.09265059793016472</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.07855452308357101</v>
+      </c>
+      <c r="G65">
+        <v>-0.06441172913099372</v>
+      </c>
+      <c r="H65">
+        <v>-0.1840796945964404</v>
+      </c>
+      <c r="I65">
+        <v>-0.09903647450784113</v>
+      </c>
+      <c r="J65">
+        <v>0.6528025113011375</v>
+      </c>
+      <c r="K65">
+        <v>-0.1803018898580771</v>
+      </c>
+      <c r="L65">
+        <v>0.08667264725620277</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>-0.1560741554441823</v>
+        <v>0.1340889599418333</v>
       </c>
       <c r="C66">
-        <v>0.09687976424528058</v>
+        <v>-0.1113048728811591</v>
       </c>
       <c r="D66">
-        <v>0.1054974335412277</v>
+        <v>0.02125858725699731</v>
       </c>
       <c r="E66">
-        <v>-0.02181143416867128</v>
+        <v>0.006518997916508224</v>
       </c>
       <c r="F66">
-        <v>0.02031456012703172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.07952651863050685</v>
+      </c>
+      <c r="G66">
+        <v>-0.08095146273147823</v>
+      </c>
+      <c r="H66">
+        <v>0.01819237189456325</v>
+      </c>
+      <c r="I66">
+        <v>-0.1014105624922078</v>
+      </c>
+      <c r="J66">
+        <v>-0.2216872030926184</v>
+      </c>
+      <c r="K66">
+        <v>0.04340796236720271</v>
+      </c>
+      <c r="L66">
+        <v>-0.1064146457392417</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>-0.09117276364601776</v>
+        <v>0.09387050206398036</v>
       </c>
       <c r="C67">
-        <v>0.02882971114231864</v>
+        <v>-0.05602954166798653</v>
       </c>
       <c r="D67">
-        <v>0.007468603977739698</v>
+        <v>0.009575329272774673</v>
       </c>
       <c r="E67">
-        <v>-0.01030582214386029</v>
+        <v>0.03776821661107142</v>
       </c>
       <c r="F67">
-        <v>-0.02863851820432503</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.0007652497762703491</v>
+      </c>
+      <c r="G67">
+        <v>0.001901647886240913</v>
+      </c>
+      <c r="H67">
+        <v>0.004020847037180721</v>
+      </c>
+      <c r="I67">
+        <v>0.1269875048958743</v>
+      </c>
+      <c r="J67">
+        <v>-0.05691278245299557</v>
+      </c>
+      <c r="K67">
+        <v>0.08432163081737036</v>
+      </c>
+      <c r="L67">
+        <v>-0.0186079687577694</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>-0.06384223808404968</v>
+        <v>0.09944643184239348</v>
       </c>
       <c r="C68">
-        <v>-0.2581963051410887</v>
+        <v>0.2740897707637182</v>
       </c>
       <c r="D68">
-        <v>-0.05729946063841312</v>
+        <v>-0.04420578234230035</v>
       </c>
       <c r="E68">
-        <v>-0.0382696730434651</v>
+        <v>0.03255049902481458</v>
       </c>
       <c r="F68">
-        <v>-0.03895191414068693</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.0006412759490485212</v>
+      </c>
+      <c r="G68">
+        <v>0.005620114860126615</v>
+      </c>
+      <c r="H68">
+        <v>0.02771215442246059</v>
+      </c>
+      <c r="I68">
+        <v>-0.01689565247656578</v>
+      </c>
+      <c r="J68">
+        <v>0.06784509968646789</v>
+      </c>
+      <c r="K68">
+        <v>-0.01957834429892723</v>
+      </c>
+      <c r="L68">
+        <v>-0.0342471304323043</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>-0.06642983408558338</v>
+        <v>0.0549813145421069</v>
       </c>
       <c r="C69">
-        <v>0.0204202750780835</v>
+        <v>-0.02586035842948871</v>
       </c>
       <c r="D69">
-        <v>0.005412135052274233</v>
+        <v>-0.01411466279085448</v>
       </c>
       <c r="E69">
-        <v>-0.0142687239644103</v>
+        <v>-0.002930766625426642</v>
       </c>
       <c r="F69">
-        <v>-0.01186618464943728</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.001921296197382088</v>
+      </c>
+      <c r="G69">
+        <v>-0.02927202920328935</v>
+      </c>
+      <c r="H69">
+        <v>0.04465418594781676</v>
+      </c>
+      <c r="I69">
+        <v>-0.003104771090478458</v>
+      </c>
+      <c r="J69">
+        <v>-0.00763172163528843</v>
+      </c>
+      <c r="K69">
+        <v>-0.01703309807019857</v>
+      </c>
+      <c r="L69">
+        <v>-0.007731504361405185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>-0.01878763034594827</v>
+        <v>0.04185485544892946</v>
       </c>
       <c r="C70">
-        <v>-0.007015812202890498</v>
+        <v>-0.01846230318697486</v>
       </c>
       <c r="D70">
-        <v>-0.002556568429084383</v>
+        <v>0.03237198071811986</v>
       </c>
       <c r="E70">
-        <v>0.01149315061141469</v>
+        <v>-0.02184939474955534</v>
       </c>
       <c r="F70">
-        <v>-0.0009443740754482302</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.0426778278388029</v>
+      </c>
+      <c r="G70">
+        <v>-0.02656649403211111</v>
+      </c>
+      <c r="H70">
+        <v>-0.01299833505820555</v>
+      </c>
+      <c r="I70">
+        <v>0.0371408707840622</v>
+      </c>
+      <c r="J70">
+        <v>-0.00445242950851015</v>
+      </c>
+      <c r="K70">
+        <v>0.1133401659487866</v>
+      </c>
+      <c r="L70">
+        <v>-0.07760621906576187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.06709766046992126</v>
+        <v>0.1117433494967937</v>
       </c>
       <c r="C71">
-        <v>-0.2726108774242076</v>
+        <v>0.2866696498466692</v>
       </c>
       <c r="D71">
-        <v>-0.05415254681853363</v>
+        <v>-0.02552883810007732</v>
       </c>
       <c r="E71">
-        <v>-0.07040755877879659</v>
+        <v>0.04941689952542368</v>
       </c>
       <c r="F71">
-        <v>-0.02192818266801084</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.005533381235610489</v>
+      </c>
+      <c r="G71">
+        <v>-0.002506691287040601</v>
+      </c>
+      <c r="H71">
+        <v>0.01359283711992773</v>
+      </c>
+      <c r="I71">
+        <v>-0.01477764888191854</v>
+      </c>
+      <c r="J71">
+        <v>0.0182598685409747</v>
+      </c>
+      <c r="K71">
+        <v>0.0056326188194074</v>
+      </c>
+      <c r="L71">
+        <v>0.006071630891246277</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.1420944669014167</v>
+        <v>0.1338971050641603</v>
       </c>
       <c r="C72">
-        <v>-0.0409032434822873</v>
+        <v>-0.01014148649765722</v>
       </c>
       <c r="D72">
-        <v>0.05734986891309036</v>
+        <v>-0.04468545266234292</v>
       </c>
       <c r="E72">
-        <v>0.2433475522402721</v>
+        <v>-0.1729811237210518</v>
       </c>
       <c r="F72">
-        <v>-0.02180260982176207</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.06811799502834637</v>
+      </c>
+      <c r="G72">
+        <v>-0.09887178036239909</v>
+      </c>
+      <c r="H72">
+        <v>0.01587596626992605</v>
+      </c>
+      <c r="I72">
+        <v>0.04676123777325402</v>
+      </c>
+      <c r="J72">
+        <v>0.09572197876696707</v>
+      </c>
+      <c r="K72">
+        <v>-0.07705775516368832</v>
+      </c>
+      <c r="L72">
+        <v>0.1320325842220908</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.2484064943020188</v>
+        <v>0.2383195347691508</v>
       </c>
       <c r="C73">
-        <v>0.06892688586627635</v>
+        <v>-0.1157359529223238</v>
       </c>
       <c r="D73">
-        <v>0.1823138524392222</v>
+        <v>0.2685589811988988</v>
       </c>
       <c r="E73">
-        <v>-0.1106346134604989</v>
+        <v>-0.02887548661115283</v>
       </c>
       <c r="F73">
-        <v>0.09207761711000433</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1187347580966004</v>
+      </c>
+      <c r="G73">
+        <v>0.289731896117684</v>
+      </c>
+      <c r="H73">
+        <v>-0.2958615537289486</v>
+      </c>
+      <c r="I73">
+        <v>0.09388940279335442</v>
+      </c>
+      <c r="J73">
+        <v>-0.2697416696035607</v>
+      </c>
+      <c r="K73">
+        <v>-0.3981238157399767</v>
+      </c>
+      <c r="L73">
+        <v>0.1929612956934365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.08441019237921123</v>
+        <v>0.08938369247751339</v>
       </c>
       <c r="C74">
-        <v>-0.01294271322034741</v>
+        <v>-0.04406771066622972</v>
       </c>
       <c r="D74">
-        <v>0.06121711103113116</v>
+        <v>0.0362684568688396</v>
       </c>
       <c r="E74">
-        <v>-0.007740233185232657</v>
+        <v>-0.01804054450715529</v>
       </c>
       <c r="F74">
-        <v>-0.008238610871364934</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.03636930414021648</v>
+      </c>
+      <c r="G74">
+        <v>0.03347370145359658</v>
+      </c>
+      <c r="H74">
+        <v>0.1406796939816069</v>
+      </c>
+      <c r="I74">
+        <v>0.001342138547443804</v>
+      </c>
+      <c r="J74">
+        <v>-0.02147267123879535</v>
+      </c>
+      <c r="K74">
+        <v>-0.0641409121162019</v>
+      </c>
+      <c r="L74">
+        <v>0.02744734041085901</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.1187152789828897</v>
+        <v>0.0995675196880047</v>
       </c>
       <c r="C75">
-        <v>0.001881549422291721</v>
+        <v>-0.04118307955843083</v>
       </c>
       <c r="D75">
-        <v>-0.0106370864734217</v>
+        <v>-0.006453331522870216</v>
       </c>
       <c r="E75">
-        <v>-0.02286999401113958</v>
+        <v>-0.009764669256199071</v>
       </c>
       <c r="F75">
-        <v>0.04110977297643838</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.0528004008682738</v>
+      </c>
+      <c r="G75">
+        <v>-0.00429972375164273</v>
+      </c>
+      <c r="H75">
+        <v>0.1366534893253786</v>
+      </c>
+      <c r="I75">
+        <v>0.04083514422207788</v>
+      </c>
+      <c r="J75">
+        <v>0.03475205497065291</v>
+      </c>
+      <c r="K75">
+        <v>-0.02208442257805273</v>
+      </c>
+      <c r="L75">
+        <v>0.01841288867609888</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.1346719204427772</v>
+        <v>0.1155111012668805</v>
       </c>
       <c r="C76">
-        <v>-0.002608220072091144</v>
+        <v>-0.05882558328279586</v>
       </c>
       <c r="D76">
-        <v>0.06349819352533402</v>
+        <v>0.05028847173850426</v>
       </c>
       <c r="E76">
-        <v>-0.01682752061539194</v>
+        <v>-0.006177923695011267</v>
       </c>
       <c r="F76">
-        <v>0.02168052066629336</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.01663452325393331</v>
+      </c>
+      <c r="G76">
+        <v>0.02062887263719133</v>
+      </c>
+      <c r="H76">
+        <v>0.2325762610983773</v>
+      </c>
+      <c r="I76">
+        <v>0.06063285012949711</v>
+      </c>
+      <c r="J76">
+        <v>0.0268770804021926</v>
+      </c>
+      <c r="K76">
+        <v>-0.03761471134148221</v>
+      </c>
+      <c r="L76">
+        <v>0.02429507635293022</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>-0.1186612413521348</v>
+        <v>0.08427740163216353</v>
       </c>
       <c r="C77">
-        <v>0.05159320116722081</v>
+        <v>-0.03186750812513291</v>
       </c>
       <c r="D77">
-        <v>-0.07027294177707012</v>
+        <v>-0.0883979017623692</v>
       </c>
       <c r="E77">
-        <v>-0.01324691203779582</v>
+        <v>0.1128459447581985</v>
       </c>
       <c r="F77">
-        <v>-0.257956268712814</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.03492185599352753</v>
+      </c>
+      <c r="G77">
+        <v>-0.6611279133462843</v>
+      </c>
+      <c r="H77">
+        <v>-0.2900507113086491</v>
+      </c>
+      <c r="I77">
+        <v>0.5049712083564758</v>
+      </c>
+      <c r="J77">
+        <v>-0.115599458639696</v>
+      </c>
+      <c r="K77">
+        <v>-0.07732493653587962</v>
+      </c>
+      <c r="L77">
+        <v>0.02044322355807702</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>-0.1267573101019878</v>
+        <v>0.1606314319015081</v>
       </c>
       <c r="C78">
-        <v>0.07488486922123841</v>
+        <v>-0.0852879726972499</v>
       </c>
       <c r="D78">
-        <v>0.04431759446037704</v>
+        <v>-0.04697584601328544</v>
       </c>
       <c r="E78">
-        <v>-0.02347350366753191</v>
+        <v>0.1290791343361899</v>
       </c>
       <c r="F78">
-        <v>-0.1007489461585973</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.1354956062402936</v>
+      </c>
+      <c r="G78">
+        <v>0.01498340756596156</v>
+      </c>
+      <c r="H78">
+        <v>-0.1123684155397496</v>
+      </c>
+      <c r="I78">
+        <v>-0.150465064547235</v>
+      </c>
+      <c r="J78">
+        <v>-0.02176133266154365</v>
+      </c>
+      <c r="K78">
+        <v>0.2927283617413358</v>
+      </c>
+      <c r="L78">
+        <v>0.4219752799841254</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>-0.1387714126837777</v>
+        <v>0.1370805120473066</v>
       </c>
       <c r="C79">
-        <v>0.01449334597073679</v>
+        <v>-0.05273339321942408</v>
       </c>
       <c r="D79">
-        <v>0.07687579866223324</v>
+        <v>0.04109658377845109</v>
       </c>
       <c r="E79">
-        <v>-0.003969891465549604</v>
+        <v>-0.01114334344225579</v>
       </c>
       <c r="F79">
-        <v>0.06384935197736093</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.0375529270763716</v>
+      </c>
+      <c r="G79">
+        <v>-0.01798356000168429</v>
+      </c>
+      <c r="H79">
+        <v>0.1875753944187389</v>
+      </c>
+      <c r="I79">
+        <v>0.07570170364504912</v>
+      </c>
+      <c r="J79">
+        <v>0.0505027227605717</v>
+      </c>
+      <c r="K79">
+        <v>-0.01603895673925509</v>
+      </c>
+      <c r="L79">
+        <v>0.03612696682344765</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>-0.03918002641121529</v>
+        <v>0.04430271057919503</v>
       </c>
       <c r="C80">
-        <v>0.0251556313602015</v>
+        <v>-0.01628953865053975</v>
       </c>
       <c r="D80">
-        <v>0.0141350769962025</v>
+        <v>0.05898863298370416</v>
       </c>
       <c r="E80">
-        <v>-0.00586004170935021</v>
+        <v>-0.02612739477661606</v>
       </c>
       <c r="F80">
-        <v>-0.01857740262109014</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.00446648536124376</v>
+      </c>
+      <c r="G80">
+        <v>-0.01721632804702352</v>
+      </c>
+      <c r="H80">
+        <v>-0.02112586215949281</v>
+      </c>
+      <c r="I80">
+        <v>-0.09738871159494644</v>
+      </c>
+      <c r="J80">
+        <v>-0.01784615479635658</v>
+      </c>
+      <c r="K80">
+        <v>0.02495362458838339</v>
+      </c>
+      <c r="L80">
+        <v>-0.008839252422197791</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>-0.1350610094067936</v>
+        <v>0.1312452883057535</v>
       </c>
       <c r="C81">
-        <v>0.01579034545747682</v>
+        <v>-0.04168593401942573</v>
       </c>
       <c r="D81">
-        <v>0.07828055707773578</v>
+        <v>0.03080191403203009</v>
       </c>
       <c r="E81">
-        <v>-0.02832913122645234</v>
+        <v>-0.004112159568263823</v>
       </c>
       <c r="F81">
-        <v>0.02642694411413524</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.04393330779143723</v>
+      </c>
+      <c r="G81">
+        <v>-0.006014500322792081</v>
+      </c>
+      <c r="H81">
+        <v>0.1656706872436172</v>
+      </c>
+      <c r="I81">
+        <v>0.0223249110733451</v>
+      </c>
+      <c r="J81">
+        <v>-0.02878964817546705</v>
+      </c>
+      <c r="K81">
+        <v>-0.03015987027440025</v>
+      </c>
+      <c r="L81">
+        <v>-0.06081072959956944</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>-0.1173403293450133</v>
+        <v>0.1193546502525125</v>
       </c>
       <c r="C82">
-        <v>0.02492268253641637</v>
+        <v>-0.04469448823080756</v>
       </c>
       <c r="D82">
-        <v>0.03000859484310175</v>
+        <v>0.03664764481618049</v>
       </c>
       <c r="E82">
-        <v>-0.03256683640208568</v>
+        <v>-0.02140277373200787</v>
       </c>
       <c r="F82">
-        <v>0.1014856015898333</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.01828576876745631</v>
+      </c>
+      <c r="G82">
+        <v>0.008963928048326606</v>
+      </c>
+      <c r="H82">
+        <v>0.2703092060820511</v>
+      </c>
+      <c r="I82">
+        <v>0.05702291459436693</v>
+      </c>
+      <c r="J82">
+        <v>-0.03142832619531591</v>
+      </c>
+      <c r="K82">
+        <v>0.01016905335376225</v>
+      </c>
+      <c r="L82">
+        <v>0.005714908778910691</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.05575748918440249</v>
+        <v>0.07645154863727481</v>
       </c>
       <c r="C83">
-        <v>0.0240451621537531</v>
+        <v>-0.04205382911713159</v>
       </c>
       <c r="D83">
-        <v>-0.08863139743800212</v>
+        <v>0.00395177816234634</v>
       </c>
       <c r="E83">
-        <v>-0.01423781116797336</v>
+        <v>0.01067894555430529</v>
       </c>
       <c r="F83">
-        <v>0.07621136309908441</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.1065189617493359</v>
+      </c>
+      <c r="G83">
+        <v>-0.01936211586781944</v>
+      </c>
+      <c r="H83">
+        <v>-0.03600742901670934</v>
+      </c>
+      <c r="I83">
+        <v>-0.0637381200141897</v>
+      </c>
+      <c r="J83">
+        <v>-0.01569560551577743</v>
+      </c>
+      <c r="K83">
+        <v>0.07539560027420761</v>
+      </c>
+      <c r="L83">
+        <v>0.003318457744416315</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>-0.05359632704197424</v>
+        <v>0.04076933426384943</v>
       </c>
       <c r="C84">
-        <v>0.01237733532154448</v>
+        <v>0.01968749994580351</v>
       </c>
       <c r="D84">
-        <v>0.01674763859438881</v>
+        <v>-0.03876504759493118</v>
       </c>
       <c r="E84">
-        <v>0.01794417998759844</v>
+        <v>-0.008707063920452124</v>
       </c>
       <c r="F84">
-        <v>-0.005081100458903288</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.01551061484943608</v>
+      </c>
+      <c r="G84">
+        <v>0.0931397010089052</v>
+      </c>
+      <c r="H84">
+        <v>-0.1460606316862902</v>
+      </c>
+      <c r="I84">
+        <v>-0.1590879384405827</v>
+      </c>
+      <c r="J84">
+        <v>-0.05361177718271797</v>
+      </c>
+      <c r="K84">
+        <v>0.3698860529071479</v>
+      </c>
+      <c r="L84">
+        <v>0.2155025893029568</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>-0.1040391038727738</v>
+        <v>0.1153525506732208</v>
       </c>
       <c r="C85">
-        <v>0.03627308413241734</v>
+        <v>-0.04367491371466011</v>
       </c>
       <c r="D85">
-        <v>0.02451092314993803</v>
+        <v>0.0406860927806551</v>
       </c>
       <c r="E85">
-        <v>-0.05630200930762733</v>
+        <v>0.03105951025246807</v>
       </c>
       <c r="F85">
-        <v>0.02522765174077618</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.003635092460824491</v>
+      </c>
+      <c r="G85">
+        <v>-0.01477266069054361</v>
+      </c>
+      <c r="H85">
+        <v>0.192039812136179</v>
+      </c>
+      <c r="I85">
+        <v>0.04931270375968705</v>
+      </c>
+      <c r="J85">
+        <v>0.04609433648190631</v>
+      </c>
+      <c r="K85">
+        <v>-0.01149772652375719</v>
+      </c>
+      <c r="L85">
+        <v>0.0379033868956106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>-0.06666588175417472</v>
+        <v>0.0728048885948524</v>
       </c>
       <c r="C86">
-        <v>0.0740548148219099</v>
+        <v>-0.02394415549362856</v>
       </c>
       <c r="D86">
-        <v>0.001270808518878096</v>
+        <v>-0.02323064806985781</v>
       </c>
       <c r="E86">
-        <v>-0.008604089597049178</v>
+        <v>0.04288367368306549</v>
       </c>
       <c r="F86">
-        <v>-0.02788303448938744</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01296502579182203</v>
+      </c>
+      <c r="G86">
+        <v>0.01625348081163506</v>
+      </c>
+      <c r="H86">
+        <v>-0.08271506979450853</v>
+      </c>
+      <c r="I86">
+        <v>-0.05241255445167029</v>
+      </c>
+      <c r="J86">
+        <v>-0.03309287880684781</v>
+      </c>
+      <c r="K86">
+        <v>0.3944043681214262</v>
+      </c>
+      <c r="L86">
+        <v>0.2496162536732213</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>-0.1098415731945904</v>
+        <v>0.1173769863490621</v>
       </c>
       <c r="C87">
-        <v>0.05821532518588182</v>
+        <v>-0.06370473369768603</v>
       </c>
       <c r="D87">
-        <v>0.0475678550158463</v>
+        <v>-0.01807707861212357</v>
       </c>
       <c r="E87">
-        <v>-0.02204721772817309</v>
+        <v>0.04207593737030263</v>
       </c>
       <c r="F87">
-        <v>-0.1690536534672677</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.1240863257575318</v>
+      </c>
+      <c r="G87">
+        <v>-0.1570577402437038</v>
+      </c>
+      <c r="H87">
+        <v>-0.1398367593996066</v>
+      </c>
+      <c r="I87">
+        <v>0.0811113902091041</v>
+      </c>
+      <c r="J87">
+        <v>-0.03594827181141087</v>
+      </c>
+      <c r="K87">
+        <v>0.02218618951844484</v>
+      </c>
+      <c r="L87">
+        <v>-0.04132554688937713</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>-0.06009870357496414</v>
+        <v>0.06480091166154811</v>
       </c>
       <c r="C88">
-        <v>0.02947035583193781</v>
+        <v>-0.04709837254486502</v>
       </c>
       <c r="D88">
-        <v>0.02809701473397071</v>
+        <v>0.03663080172011834</v>
       </c>
       <c r="E88">
-        <v>-0.01588557174111089</v>
+        <v>0.001982877888857157</v>
       </c>
       <c r="F88">
-        <v>-0.01370679075967317</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.02502586044554169</v>
+      </c>
+      <c r="G88">
+        <v>-0.02031597017536861</v>
+      </c>
+      <c r="H88">
+        <v>0.0180418344525617</v>
+      </c>
+      <c r="I88">
+        <v>-0.05213826455226572</v>
+      </c>
+      <c r="J88">
+        <v>-0.03224505990835758</v>
+      </c>
+      <c r="K88">
+        <v>0.007082178545799739</v>
+      </c>
+      <c r="L88">
+        <v>-0.03293752362558056</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>-0.1028868579980749</v>
+        <v>0.1812358780458755</v>
       </c>
       <c r="C89">
-        <v>-0.3264152316443888</v>
+        <v>0.3736423747400615</v>
       </c>
       <c r="D89">
-        <v>-0.08130756072741101</v>
+        <v>2.688689483040985e-05</v>
       </c>
       <c r="E89">
-        <v>-0.1100916842144144</v>
+        <v>0.09532433152918342</v>
       </c>
       <c r="F89">
-        <v>-0.05629606000530096</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02795068154813969</v>
+      </c>
+      <c r="G89">
+        <v>0.005613864904875378</v>
+      </c>
+      <c r="H89">
+        <v>-0.003506581964721388</v>
+      </c>
+      <c r="I89">
+        <v>-0.06469262583637776</v>
+      </c>
+      <c r="J89">
+        <v>-0.08867218776276783</v>
+      </c>
+      <c r="K89">
+        <v>-0.04217666895914508</v>
+      </c>
+      <c r="L89">
+        <v>-0.0327798622392193</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>-0.08577311000581876</v>
+        <v>0.1242470231566805</v>
       </c>
       <c r="C90">
-        <v>-0.2794891987935082</v>
+        <v>0.2761166447183017</v>
       </c>
       <c r="D90">
-        <v>-0.06282282782188156</v>
+        <v>-0.01985795118443097</v>
       </c>
       <c r="E90">
-        <v>-0.05104302159588975</v>
+        <v>0.0336375299751653</v>
       </c>
       <c r="F90">
-        <v>-0.05905643236588262</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.007240983774852573</v>
+      </c>
+      <c r="G90">
+        <v>-0.02197078907393331</v>
+      </c>
+      <c r="H90">
+        <v>-0.03747671539895223</v>
+      </c>
+      <c r="I90">
+        <v>-0.03475211050541097</v>
+      </c>
+      <c r="J90">
+        <v>-0.03751331394014559</v>
+      </c>
+      <c r="K90">
+        <v>-0.02365179930200609</v>
+      </c>
+      <c r="L90">
+        <v>-0.02704889661901034</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>-0.1000338750017526</v>
+        <v>0.08494324717081907</v>
       </c>
       <c r="C91">
-        <v>0.01336654334035242</v>
+        <v>-0.04724348253043342</v>
       </c>
       <c r="D91">
-        <v>0.01757869485428737</v>
+        <v>0.002863035845394133</v>
       </c>
       <c r="E91">
-        <v>-0.01292713014264643</v>
+        <v>-0.0003649662656451399</v>
       </c>
       <c r="F91">
-        <v>0.00473747967860703</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.01852702710931829</v>
+      </c>
+      <c r="G91">
+        <v>0.01275950425942544</v>
+      </c>
+      <c r="H91">
+        <v>0.1006513672244892</v>
+      </c>
+      <c r="I91">
+        <v>0.03080619621065115</v>
+      </c>
+      <c r="J91">
+        <v>0.0153680054085728</v>
+      </c>
+      <c r="K91">
+        <v>-0.04073448655125275</v>
+      </c>
+      <c r="L91">
+        <v>0.008950574804963932</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>-0.07637708251782166</v>
+        <v>0.1291842176192414</v>
       </c>
       <c r="C92">
-        <v>-0.3365693786468378</v>
+        <v>0.3249464465359468</v>
       </c>
       <c r="D92">
-        <v>-0.04028326440206222</v>
+        <v>-0.01622960812783319</v>
       </c>
       <c r="E92">
-        <v>-0.0860291677803363</v>
+        <v>0.05174659263985277</v>
       </c>
       <c r="F92">
-        <v>-0.01742735543676208</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.01203919441358614</v>
+      </c>
+      <c r="G92">
+        <v>0.01985629873964257</v>
+      </c>
+      <c r="H92">
+        <v>0.03683987451104311</v>
+      </c>
+      <c r="I92">
+        <v>-0.03268859275366915</v>
+      </c>
+      <c r="J92">
+        <v>-0.03008998520405799</v>
+      </c>
+      <c r="K92">
+        <v>-0.01688764558478248</v>
+      </c>
+      <c r="L92">
+        <v>-0.0008868447914232909</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>-0.07787610302843778</v>
+        <v>0.1323461288210948</v>
       </c>
       <c r="C93">
-        <v>-0.2783054529238329</v>
+        <v>0.3061661675915411</v>
       </c>
       <c r="D93">
-        <v>-0.0270151824678626</v>
+        <v>-0.004522051351972628</v>
       </c>
       <c r="E93">
-        <v>-0.04906104221287963</v>
+        <v>0.02152089908959625</v>
       </c>
       <c r="F93">
-        <v>-0.03362294002042622</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.005609198122234979</v>
+      </c>
+      <c r="G93">
+        <v>0.005562981378739127</v>
+      </c>
+      <c r="H93">
+        <v>-0.01354263459347623</v>
+      </c>
+      <c r="I93">
+        <v>0.0009114627901264389</v>
+      </c>
+      <c r="J93">
+        <v>0.01134754373418055</v>
+      </c>
+      <c r="K93">
+        <v>0.03346636278427636</v>
+      </c>
+      <c r="L93">
+        <v>-0.02596026688473484</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>-0.1138511209564517</v>
+        <v>0.113724734163734</v>
       </c>
       <c r="C94">
-        <v>0.05653990009959498</v>
+        <v>-0.07018310791537144</v>
       </c>
       <c r="D94">
-        <v>0.01796735358959447</v>
+        <v>0.0115301142289258</v>
       </c>
       <c r="E94">
-        <v>-0.03189263143803505</v>
+        <v>0.0233060933578062</v>
       </c>
       <c r="F94">
-        <v>0.01247163519209065</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.02866793972909231</v>
+      </c>
+      <c r="G94">
+        <v>0.04193821349017517</v>
+      </c>
+      <c r="H94">
+        <v>0.1301711308081405</v>
+      </c>
+      <c r="I94">
+        <v>0.0121533333708643</v>
+      </c>
+      <c r="J94">
+        <v>0.02421224996021499</v>
+      </c>
+      <c r="K94">
+        <v>-0.03789522694510909</v>
+      </c>
+      <c r="L94">
+        <v>0.01046378950173393</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>-0.1214395310284909</v>
+        <v>0.1367354369877732</v>
       </c>
       <c r="C95">
-        <v>0.1002004497131042</v>
+        <v>-0.06616969847713951</v>
       </c>
       <c r="D95">
-        <v>0.07842034790879225</v>
+        <v>0.01905968838187801</v>
       </c>
       <c r="E95">
-        <v>-0.07643019267410474</v>
+        <v>0.06992554112070723</v>
       </c>
       <c r="F95">
-        <v>0.01211989813074846</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.05723883196511313</v>
+      </c>
+      <c r="G95">
+        <v>-0.01442789771028661</v>
+      </c>
+      <c r="H95">
+        <v>-0.1749558160768805</v>
+      </c>
+      <c r="I95">
+        <v>-0.08488350409343678</v>
+      </c>
+      <c r="J95">
+        <v>-0.02406157718819347</v>
+      </c>
+      <c r="K95">
+        <v>0.04372532528322193</v>
+      </c>
+      <c r="L95">
+        <v>0.06420652217412104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4345,142 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-0.2723070898275236</v>
+        <v>0.1884789595986478</v>
       </c>
       <c r="C97">
-        <v>-0.1286754022966651</v>
+        <v>0.01188674632165524</v>
       </c>
       <c r="D97">
-        <v>0.01643664370221718</v>
+        <v>-0.4608107462282324</v>
       </c>
       <c r="E97">
-        <v>0.8840763699954678</v>
+        <v>-0.8104404005199396</v>
       </c>
       <c r="F97">
-        <v>-0.01313973297412536</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.1082609688317485</v>
+      </c>
+      <c r="G97">
+        <v>-0.01584110338957186</v>
+      </c>
+      <c r="H97">
+        <v>-0.07271826122997226</v>
+      </c>
+      <c r="I97">
+        <v>-0.05222306267583839</v>
+      </c>
+      <c r="J97">
+        <v>-0.07843644620720552</v>
+      </c>
+      <c r="K97">
+        <v>-0.03146384153038544</v>
+      </c>
+      <c r="L97">
+        <v>0.006259846039980389</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>-0.2925113724805715</v>
+        <v>0.2799374510129545</v>
       </c>
       <c r="C98">
-        <v>0.08317499586351827</v>
+        <v>-0.1153054189739492</v>
       </c>
       <c r="D98">
-        <v>0.008706890994956522</v>
+        <v>0.1640552227606934</v>
       </c>
       <c r="E98">
-        <v>-0.1043586058781419</v>
+        <v>-0.1125209353120376</v>
       </c>
       <c r="F98">
-        <v>0.4764204360373118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.3095677186029362</v>
+      </c>
+      <c r="G98">
+        <v>0.2413235257115522</v>
+      </c>
+      <c r="H98">
+        <v>-0.2295600518440781</v>
+      </c>
+      <c r="I98">
+        <v>0.1973089032444326</v>
+      </c>
+      <c r="J98">
+        <v>0.140599753272009</v>
+      </c>
+      <c r="K98">
+        <v>0.3528273159468222</v>
+      </c>
+      <c r="L98">
+        <v>-0.4908870529417544</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>-0.2298032942678058</v>
+        <v>0.1404357692159599</v>
       </c>
       <c r="C99">
-        <v>0.1820486457216777</v>
+        <v>-0.1139919171341233</v>
       </c>
       <c r="D99">
-        <v>-0.8183360982035008</v>
+        <v>-0.294831327341386</v>
       </c>
       <c r="E99">
-        <v>0.01229595270230261</v>
+        <v>0.093466118688689</v>
       </c>
       <c r="F99">
-        <v>0.2795231875437952</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.7759474430497758</v>
+      </c>
+      <c r="G99">
+        <v>-0.1972627359750529</v>
+      </c>
+      <c r="H99">
+        <v>0.1187334950211762</v>
+      </c>
+      <c r="I99">
+        <v>-0.0447405046543841</v>
+      </c>
+      <c r="J99">
+        <v>0.03133822658997808</v>
+      </c>
+      <c r="K99">
+        <v>0.04681564879063677</v>
+      </c>
+      <c r="L99">
+        <v>0.1690179850349543</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,30 +4497,66 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>-0.05061708023860211</v>
+        <v>0.0486454011806453</v>
       </c>
       <c r="C101">
-        <v>0.001572817109547015</v>
+        <v>-0.01798769430166143</v>
       </c>
       <c r="D101">
-        <v>0.02051264208970402</v>
+        <v>0.005853419421612039</v>
       </c>
       <c r="E101">
-        <v>-0.01451284776737623</v>
+        <v>0.02496720364757447</v>
       </c>
       <c r="F101">
-        <v>-0.03863624811104053</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.04235700123922643</v>
+      </c>
+      <c r="G101">
+        <v>-0.02777617655156371</v>
+      </c>
+      <c r="H101">
+        <v>0.04555288413747004</v>
+      </c>
+      <c r="I101">
+        <v>-0.0454336111189363</v>
+      </c>
+      <c r="J101">
+        <v>0.0184371699413872</v>
+      </c>
+      <c r="K101">
+        <v>0.02772493354368427</v>
+      </c>
+      <c r="L101">
+        <v>-0.01302915864346846</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2737,10 +4573,28 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4611,28 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4647,24 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
